--- a/teaching/traditional_assets/database/data/south_africa/south_africa_insurance_prop_cas.xlsx
+++ b/teaching/traditional_assets/database/data/south_africa/south_africa_insurance_prop_cas.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AQ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,121 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.08579999999999999</v>
+        <v>0.0669</v>
       </c>
       <c r="E2">
-        <v>0.10935</v>
+        <v>-0.0742</v>
       </c>
       <c r="G2">
-        <v>0.1144938822656262</v>
+        <v>0.1657800863633519</v>
       </c>
       <c r="H2">
-        <v>0.1144938822656262</v>
+        <v>0.1657800863633519</v>
       </c>
       <c r="I2">
-        <v>0.1184016361055655</v>
+        <v>0.09856686901558295</v>
       </c>
       <c r="J2">
-        <v>0.08685916372517508</v>
+        <v>0.05963709721951238</v>
       </c>
       <c r="K2">
-        <v>170.421</v>
+        <v>65.2</v>
       </c>
       <c r="L2">
-        <v>0.08907222637446491</v>
+        <v>0.04080355466549847</v>
       </c>
       <c r="M2">
-        <v>88.1768</v>
+        <v>80.8</v>
       </c>
       <c r="N2">
-        <v>0.03756152211047356</v>
+        <v>0.04116358449233277</v>
       </c>
       <c r="O2">
-        <v>0.517405718778789</v>
+        <v>1.239263803680982</v>
       </c>
       <c r="P2">
-        <v>81.0128</v>
+        <v>70.7</v>
       </c>
       <c r="Q2">
-        <v>0.03450980392156863</v>
+        <v>0.03601813643079117</v>
       </c>
       <c r="R2">
-        <v>0.4753686458828431</v>
+        <v>1.084355828220859</v>
       </c>
       <c r="S2">
-        <v>7.164000000000005</v>
+        <v>10.09999999999999</v>
       </c>
       <c r="T2">
-        <v>0.08124586058917997</v>
+        <v>0.1249999999999999</v>
       </c>
       <c r="U2">
-        <v>263.77</v>
+        <v>323.5</v>
       </c>
       <c r="V2">
-        <v>0.1123606514080757</v>
+        <v>0.164807173060268</v>
       </c>
       <c r="W2">
-        <v>0.2592016855741041</v>
+        <v>0.1007727975270479</v>
       </c>
       <c r="X2">
-        <v>0.05873845288712429</v>
+        <v>0.06327792465038341</v>
       </c>
       <c r="Y2">
-        <v>0.2004632326869798</v>
+        <v>0.0374948728766645</v>
       </c>
       <c r="Z2">
-        <v>3.181670273170117</v>
+        <v>2.476212614287928</v>
       </c>
       <c r="AA2">
-        <v>0.7315178862401039</v>
+        <v>0.1476741324144721</v>
       </c>
       <c r="AB2">
-        <v>0.05662891812918302</v>
+        <v>0.06022275862014182</v>
       </c>
       <c r="AC2">
-        <v>0.6748889681109208</v>
+        <v>0.08745137379433029</v>
       </c>
       <c r="AD2">
-        <v>259.4</v>
+        <v>219.8</v>
       </c>
       <c r="AE2">
-        <v>105.3166682779129</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>364.7166682779128</v>
+        <v>219.8</v>
       </c>
       <c r="AG2">
-        <v>100.9466682779128</v>
+        <v>-103.7</v>
       </c>
       <c r="AH2">
-        <v>0.1344703166358694</v>
+        <v>0.1007009666926284</v>
       </c>
       <c r="AI2">
-        <v>0.3469768956346977</v>
+        <v>0.2836495031616983</v>
       </c>
       <c r="AJ2">
-        <v>0.04122835622073198</v>
+        <v>-0.05577667814113597</v>
       </c>
       <c r="AK2">
-        <v>0.1282095806703471</v>
+        <v>-0.2297297297297297</v>
       </c>
       <c r="AL2">
-        <v>30.9</v>
+        <v>19.1</v>
       </c>
       <c r="AM2">
-        <v>30.9</v>
+        <v>19.1</v>
       </c>
       <c r="AN2">
-        <v>1.025053347032324</v>
+        <v>1.349294045426642</v>
       </c>
       <c r="AO2">
-        <v>7.161812297734628</v>
+        <v>8.246073298429319</v>
       </c>
       <c r="AP2">
-        <v>0.398904087085722</v>
+        <v>-0.6365868631062001</v>
       </c>
       <c r="AQ2">
-        <v>7.161812297734628</v>
+        <v>8.246073298429319</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +716,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Indequity Group Limited (JSE:IDQ)</t>
+          <t>Santam Ltd (JSE:SNT)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -725,249 +725,121 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.102</v>
+        <v>0.0669</v>
       </c>
       <c r="E3">
-        <v>0.138</v>
+        <v>-0.0742</v>
       </c>
       <c r="G3">
-        <v>0.2414578587699317</v>
+        <v>0.1657800863633519</v>
       </c>
       <c r="H3">
-        <v>0.2414578587699317</v>
+        <v>0.1657800863633519</v>
       </c>
       <c r="I3">
-        <v>0.2409021212294797</v>
+        <v>0.09856686901558295</v>
       </c>
       <c r="J3">
-        <v>0.1732086251639959</v>
+        <v>0.05963709721951238</v>
       </c>
       <c r="K3">
-        <v>0.721</v>
+        <v>65.2</v>
       </c>
       <c r="L3">
-        <v>0.1642369020501139</v>
+        <v>0.04080355466549847</v>
       </c>
       <c r="M3">
-        <v>0.3668</v>
+        <v>80.8</v>
       </c>
       <c r="N3">
-        <v>0.05617151607963247</v>
+        <v>0.04116358449233277</v>
       </c>
       <c r="O3">
-        <v>0.50873786407767</v>
+        <v>1.239263803680982</v>
       </c>
       <c r="P3">
-        <v>0.2128</v>
+        <v>70.7</v>
       </c>
       <c r="Q3">
-        <v>0.03258805513016845</v>
+        <v>0.03601813643079117</v>
       </c>
       <c r="R3">
-        <v>0.2951456310679612</v>
+        <v>1.084355828220859</v>
       </c>
       <c r="S3">
-        <v>0.154</v>
+        <v>10.09999999999999</v>
       </c>
       <c r="T3">
-        <v>0.4198473282442748</v>
+        <v>0.1249999999999999</v>
       </c>
       <c r="U3">
-        <v>2.67</v>
+        <v>323.5</v>
       </c>
       <c r="V3">
-        <v>0.4088820826952527</v>
+        <v>0.164807173060268</v>
       </c>
       <c r="W3">
-        <v>0.2260188087774295</v>
+        <v>0.1007727975270479</v>
       </c>
       <c r="X3">
-        <v>0.05709599983891889</v>
+        <v>0.06327792465038341</v>
       </c>
       <c r="Y3">
-        <v>0.1689228089385106</v>
+        <v>0.0374948728766645</v>
       </c>
       <c r="Z3">
-        <v>6.825265320508359</v>
+        <v>2.476212614287928</v>
       </c>
       <c r="AA3">
-        <v>1.182194822544753</v>
+        <v>0.1476741324144721</v>
       </c>
       <c r="AB3">
-        <v>0.05649106328643228</v>
+        <v>0.06022275862014182</v>
       </c>
       <c r="AC3">
-        <v>1.125703759258321</v>
+        <v>0.08745137379433029</v>
       </c>
       <c r="AD3">
+        <v>219.8</v>
+      </c>
+      <c r="AE3">
         <v>0</v>
       </c>
-      <c r="AE3">
-        <v>0.2121984390129207</v>
-      </c>
       <c r="AF3">
-        <v>0.2121984390129207</v>
+        <v>219.8</v>
       </c>
       <c r="AG3">
-        <v>-2.457801560987079</v>
+        <v>-103.7</v>
       </c>
       <c r="AH3">
-        <v>0.03147318206848674</v>
+        <v>0.1007009666926284</v>
       </c>
       <c r="AI3">
-        <v>0.05858277578816101</v>
+        <v>0.2836495031616983</v>
       </c>
       <c r="AJ3">
-        <v>-0.6035564321818359</v>
+        <v>-0.05577667814113597</v>
       </c>
       <c r="AK3">
-        <v>-2.581186295090879</v>
+        <v>-0.2297297297297297</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>19.1</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>19.1</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>1.349294045426642</v>
+      </c>
+      <c r="AO3">
+        <v>8.246073298429319</v>
       </c>
       <c r="AP3">
-        <v>-2.118794449126792</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>South Africa</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Santam Ltd (JSE:SNT)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Insurance (Prop/Cas.)</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>0.0696</v>
-      </c>
-      <c r="E4">
-        <v>0.08070000000000001</v>
-      </c>
-      <c r="G4">
-        <v>0.1142018963801142</v>
-      </c>
-      <c r="H4">
-        <v>0.1142018963801142</v>
-      </c>
-      <c r="I4">
-        <v>0.1181199151512494</v>
-      </c>
-      <c r="J4">
-        <v>0.08837676878832335</v>
-      </c>
-      <c r="K4">
-        <v>169.7</v>
-      </c>
-      <c r="L4">
-        <v>0.08889936612708889</v>
-      </c>
-      <c r="M4">
-        <v>87.81</v>
-      </c>
-      <c r="N4">
-        <v>0.03750961127723195</v>
-      </c>
-      <c r="O4">
-        <v>0.5174425456688274</v>
-      </c>
-      <c r="P4">
-        <v>80.8</v>
-      </c>
-      <c r="Q4">
-        <v>0.03451516445963263</v>
-      </c>
-      <c r="R4">
-        <v>0.4761343547436653</v>
-      </c>
-      <c r="S4">
-        <v>7.010000000000005</v>
-      </c>
-      <c r="T4">
-        <v>0.07983145427627839</v>
-      </c>
-      <c r="U4">
-        <v>261.1</v>
-      </c>
-      <c r="V4">
-        <v>0.1115335326783426</v>
-      </c>
-      <c r="W4">
-        <v>0.2923845623707788</v>
-      </c>
-      <c r="X4">
-        <v>0.06038090593532969</v>
-      </c>
-      <c r="Y4">
-        <v>0.2320036564354491</v>
-      </c>
-      <c r="Z4">
-        <v>3.177768929390418</v>
-      </c>
-      <c r="AA4">
-        <v>0.2808409499354548</v>
-      </c>
-      <c r="AB4">
-        <v>0.05676677297193376</v>
-      </c>
-      <c r="AC4">
-        <v>0.2240741769635211</v>
-      </c>
-      <c r="AD4">
-        <v>259.4</v>
-      </c>
-      <c r="AE4">
-        <v>105.1044698388999</v>
-      </c>
-      <c r="AF4">
-        <v>364.5044698388999</v>
-      </c>
-      <c r="AG4">
-        <v>103.4044698388999</v>
-      </c>
-      <c r="AH4">
-        <v>0.1347269885902663</v>
-      </c>
-      <c r="AI4">
-        <v>0.3479741426735473</v>
-      </c>
-      <c r="AJ4">
-        <v>0.0423025203540537</v>
-      </c>
-      <c r="AK4">
-        <v>0.1314901857819844</v>
-      </c>
-      <c r="AL4">
-        <v>30.9</v>
-      </c>
-      <c r="AM4">
-        <v>30.9</v>
-      </c>
-      <c r="AN4">
-        <v>1.029773719730052</v>
-      </c>
-      <c r="AO4">
-        <v>7.129449838187703</v>
-      </c>
-      <c r="AP4">
-        <v>0.4104980938423974</v>
-      </c>
-      <c r="AQ4">
-        <v>7.129449838187703</v>
+        <v>-0.6365868631062001</v>
+      </c>
+      <c r="AQ3">
+        <v>8.246073298429319</v>
       </c>
     </row>
   </sheetData>
